--- a/outputs/feature_map.xlsx
+++ b/outputs/feature_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarr\Documents\GitHub\predictive-modeling\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EFF7DD-7AE6-410F-8F11-0977854C09A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4688A1-45FC-4C2C-AFB9-85F818A0F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{427A8813-29D2-41AE-8F7D-92F36A98B693}"/>
+    <workbookView xWindow="34305" yWindow="2730" windowWidth="21600" windowHeight="11310" activeTab="1" xr2:uid="{427A8813-29D2-41AE-8F7D-92F36A98B693}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Table" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>Number of substituted benzene C(sp2)</t>
   </si>
   <si>
-    <t>C%</t>
-  </si>
-  <si>
     <t>Percentage of C atoms</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>Random Forest Filter</t>
+  </si>
+  <si>
+    <t>C.</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2516,7 @@
   <dimension ref="B1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2556,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -2577,14 +2577,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2605,16 +2605,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>55</v>
@@ -2648,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>58</v>
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2674,10 +2674,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2687,10 +2687,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2700,10 +2700,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2713,10 +2713,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2726,10 +2726,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -2739,10 +2739,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -2752,16 +2752,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2769,14 +2769,14 @@
         <v>16</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2784,14 +2784,14 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -2812,16 +2812,16 @@
         <v>19</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2829,16 +2829,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2846,16 +2846,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2863,10 +2863,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -2876,10 +2876,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2889,16 +2889,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -2906,10 +2906,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2919,16 +2919,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2936,16 +2936,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2953,14 +2953,14 @@
         <v>28</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -2968,16 +2968,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -2985,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -2998,10 +2998,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -3011,16 +3011,16 @@
         <v>32</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3028,10 +3028,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -3041,10 +3041,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -3054,14 +3054,14 @@
         <v>35</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3069,10 +3069,10 @@
         <v>36</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -3082,10 +3082,10 @@
         <v>37</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -3095,10 +3095,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -3108,16 +3108,16 @@
         <v>39</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -3125,16 +3125,16 @@
         <v>40</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -3142,10 +3142,10 @@
         <v>41</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -3155,10 +3155,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
